--- a/notes/se/res/64位markword.xlsx
+++ b/notes/se/res/64位markword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Go-Gad\notes\se\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBB8FF7-C3DB-45E3-95AE-C069B2367E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0AB6AF-77DC-4597-9F91-C3F56BF40921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
